--- a/DATA_goal/Junction_Flooding_379.xlsx
+++ b/DATA_goal/Junction_Flooding_379.xlsx
@@ -447,7 +447,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -464,7 +464,7 @@
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.75</v>
+        <v>37.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.81</v>
+        <v>78.11</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.78</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_379.xlsx
+++ b/DATA_goal/Junction_Flooding_379.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45060.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45060.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>9.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>22.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>21.065</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>8.185</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>29.461</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>12.777</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>5.845</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>9.587</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>10.127</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>10.653</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>2.666</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>8.689</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>11.773</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>6.449</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.681</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.555</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>123.872</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>23.487</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>8.48</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>16.702</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>8.406000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.147</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>14.165</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>6.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>6.467</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>7.414</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>10.904</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>25.477</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>4.777</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>9.664999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45060.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.56</v>
+        <v>14.632</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.6</v>
+        <v>11.405</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.331</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.45</v>
+        <v>30.397</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.03</v>
+        <v>26.708</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.11</v>
+        <v>10.978</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.3</v>
+        <v>42.991</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.05</v>
+        <v>17.053</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.04</v>
+        <v>7.771</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.81</v>
+        <v>12.131</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.88</v>
+        <v>12.886</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.11</v>
+        <v>13.581</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.73</v>
+        <v>3.564</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.64</v>
+        <v>11.296</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.17</v>
+        <v>15.744</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.51</v>
+        <v>8.856</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>2.04</v>
+        <v>0.53</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.599</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>37.55</v>
+        <v>164.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.98</v>
+        <v>31.13</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.38</v>
+        <v>10.711</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.01</v>
+        <v>21.652</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.1</v>
+        <v>11.131</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.4</v>
+        <v>1.485</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.65</v>
+        <v>20.596</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.79</v>
+        <v>8.776999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.43</v>
+        <v>8.239000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.67</v>
+        <v>9.625</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.96</v>
+        <v>13.72</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.18</v>
+        <v>38.335</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.7</v>
+        <v>6.108</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.89</v>
+        <v>12.803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45060.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.99</v>
+        <v>19.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.21</v>
+        <v>14.87</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.27</v>
+        <v>41.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.35</v>
+        <v>35.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.17</v>
+        <v>14.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.66</v>
+        <v>58.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.98</v>
+        <v>22.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.47</v>
+        <v>10.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.76</v>
+        <v>15.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.44</v>
+        <v>17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.39</v>
+        <v>17.94</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.7</v>
+        <v>4.79</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.39</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>21.22</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.12</v>
+        <v>12.09</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.47</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.11</v>
+        <v>221.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.04</v>
+        <v>41.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.95</v>
+        <v>14.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.35</v>
+        <v>28.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.75</v>
+        <v>14.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.98</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>27.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.2</v>
+        <v>11.94</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.22</v>
+        <v>10.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.9</v>
+        <v>12.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.85</v>
+        <v>18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.78</v>
+        <v>52.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.06</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.13</v>
+        <v>17.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_379.xlsx
+++ b/DATA_goal/Junction_Flooding_379.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45060.50694444445</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45060.51388888889</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.375</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.19</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.54</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.065</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.185</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.461</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.777</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.845</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.587</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.127</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.653</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.666</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.689</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.773</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.449</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.681</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.555</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>123.872</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.487</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.48</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.702</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.406000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.147</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.165</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.467</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.414</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.904</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.477</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.777</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.664999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45060.52083333334</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.632</v>
+        <v>3.556</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.405</v>
+        <v>2.601</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.331</v>
+        <v>0.292</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.397</v>
+        <v>7.445</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.708</v>
+        <v>6.031</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.978</v>
+        <v>2.111</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.991</v>
+        <v>7.305</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.053</v>
+        <v>5.052</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.771</v>
+        <v>3.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.131</v>
+        <v>4.815</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.886</v>
+        <v>3.883</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.581</v>
+        <v>3.111</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.564</v>
+        <v>0.727</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.296</v>
+        <v>2.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.744</v>
+        <v>4.174</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.856</v>
+        <v>3.506</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.53</v>
+        <v>2.039</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.599</v>
+        <v>0.531</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.1</v>
+        <v>37.548</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.13</v>
+        <v>6.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.711</v>
+        <v>2.382</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.652</v>
+        <v>5.005</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.131</v>
+        <v>3.101</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.485</v>
+        <v>0.404</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.596</v>
+        <v>3.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.776999999999999</v>
+        <v>1.787</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.239000000000001</v>
+        <v>2.425</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.625</v>
+        <v>2.67</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.72</v>
+        <v>3.958</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.335</v>
+        <v>6.184</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.108</v>
+        <v>1.701</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.803</v>
+        <v>2.894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45060.52777777778</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.38</v>
+        <v>6.993</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.87</v>
+        <v>5.213</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.1</v>
+        <v>15.269</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.15</v>
+        <v>12.354</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.84</v>
+        <v>5.166</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.2</v>
+        <v>18.664</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.97</v>
+        <v>8.976000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.42</v>
+        <v>4.473</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.93</v>
+        <v>6.764</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17</v>
+        <v>6.441</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.94</v>
+        <v>6.385</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.79</v>
+        <v>1.704</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>5.394</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.22</v>
+        <v>8.036</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.09</v>
+        <v>5.122</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.47</v>
+        <v>1.188</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.474</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.4</v>
+        <v>78.108</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.74</v>
+        <v>15.038</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.09</v>
+        <v>4.955</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.72</v>
+        <v>10.349</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.91</v>
+        <v>5.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.98</v>
+        <v>0.742</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.99</v>
+        <v>9.375</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.94</v>
+        <v>4.202</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.88</v>
+        <v>4.225</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.77</v>
+        <v>4.903</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18</v>
+        <v>6.846</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.674</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.26</v>
+        <v>16.782</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>3.064</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.19</v>
+        <v>6.198</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>49.66</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_379.xlsx
+++ b/DATA_goal/Junction_Flooding_379.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45060.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45060.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>9.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>22.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>21.065</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>8.185</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>29.461</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>12.777</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>5.845</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>9.587</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>10.127</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>10.653</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>2.666</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>8.689</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>11.773</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>6.449</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.681</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.555</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>123.872</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>23.487</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>8.48</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>16.702</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>8.406000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.147</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>14.165</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>6.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>6.467</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>7.414</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>10.904</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>25.477</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>4.777</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>9.664999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45060.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.556</v>
+        <v>14.632</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.601</v>
+        <v>11.405</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.292</v>
+        <v>0.331</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.445</v>
+        <v>30.397</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.031</v>
+        <v>26.708</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.111</v>
+        <v>10.978</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.305</v>
+        <v>42.991</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.052</v>
+        <v>17.053</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.04</v>
+        <v>7.771</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.815</v>
+        <v>12.131</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.883</v>
+        <v>12.886</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.111</v>
+        <v>13.581</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.727</v>
+        <v>3.564</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.639</v>
+        <v>11.296</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.174</v>
+        <v>15.744</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.506</v>
+        <v>8.856</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>2.039</v>
+        <v>0.53</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.531</v>
+        <v>0.599</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>37.548</v>
+        <v>164.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.98</v>
+        <v>31.13</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.382</v>
+        <v>10.711</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.005</v>
+        <v>21.652</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.101</v>
+        <v>11.131</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.404</v>
+        <v>1.485</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.65</v>
+        <v>20.596</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.787</v>
+        <v>8.776999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.425</v>
+        <v>8.239000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.67</v>
+        <v>9.625</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.958</v>
+        <v>13.72</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.184</v>
+        <v>38.335</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.701</v>
+        <v>6.108</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.894</v>
+        <v>12.803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45060.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.993</v>
+        <v>19.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.213</v>
+        <v>14.87</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.269</v>
+        <v>41.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.354</v>
+        <v>35.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.166</v>
+        <v>14.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.664</v>
+        <v>58.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.976000000000001</v>
+        <v>22.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.473</v>
+        <v>10.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.764</v>
+        <v>15.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.441</v>
+        <v>17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.385</v>
+        <v>17.94</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.704</v>
+        <v>4.79</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.394</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.036</v>
+        <v>21.22</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.122</v>
+        <v>12.09</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>1.188</v>
+        <v>0.47</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.474</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.108</v>
+        <v>221.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.038</v>
+        <v>41.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.955</v>
+        <v>14.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.349</v>
+        <v>28.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.75</v>
+        <v>14.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.742</v>
+        <v>1.98</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.375</v>
+        <v>27.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.202</v>
+        <v>11.94</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.225</v>
+        <v>10.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.903</v>
+        <v>12.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.846</v>
+        <v>18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.674</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.782</v>
+        <v>52.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.064</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.198</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.66</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.13</v>
+        <v>17.19</v>
       </c>
     </row>
   </sheetData>
